--- a/data/case1/5/Plm1_5.xlsx
+++ b/data/case1/5/Plm1_5.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.35002697640635461</v>
+        <v>-0.38057104854618728</v>
       </c>
       <c r="B1" s="0">
-        <v>0.34893932710603792</v>
+        <v>0.37927322379067618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.25354008547198248</v>
+        <v>-0.26325215972463667</v>
       </c>
       <c r="B2" s="0">
-        <v>0.25025697878648678</v>
+        <v>0.25962011509415106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.049977175547475383</v>
+        <v>-0.09310364038294594</v>
       </c>
       <c r="B3" s="0">
-        <v>0.049749876425206452</v>
+        <v>0.092647491785431413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.11174483030548288</v>
+        <v>-0.15464092458532974</v>
       </c>
       <c r="B4" s="0">
-        <v>0.11129399466362244</v>
+        <v>0.15382707976412568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.10529399509686055</v>
+        <v>-0.14782708057912597</v>
       </c>
       <c r="B5" s="0">
-        <v>0.10441392980346897</v>
+        <v>0.14619864114066949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.054377648728502148</v>
+        <v>-0.053076732483280153</v>
       </c>
       <c r="B6" s="0">
-        <v>0.054334512945276359</v>
+        <v>0.053035602033046025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.03433451347938643</v>
+        <v>-0.033035603009425429</v>
       </c>
       <c r="B7" s="0">
-        <v>0.034272025773052661</v>
+        <v>0.032978535090117944</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.014272026309798846</v>
+        <v>-0.012978536070807678</v>
       </c>
       <c r="B8" s="0">
-        <v>0.014257741211868513</v>
+        <v>0.012967093156020404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0082577416603433207</v>
+        <v>-0.0069670940036239415</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0082531958330367416</v>
+        <v>0.0069640641355466215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056022266731112325</v>
+        <v>-0.00096406498484213898</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055976574927186107</v>
+        <v>0.00096617581801439201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051476575367999544</v>
+        <v>-0.051479374529051825</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051397928184815811</v>
+        <v>0.051401115218475013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045397928637223472</v>
+        <v>-0.045401116070890257</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045152058200732537</v>
+        <v>0.045152647270962909</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.03915205866083582</v>
+        <v>-0.039152648137294577</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039085196448384707</v>
+        <v>0.03908528541702605</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027085196949471424</v>
+        <v>-0.027085286345517545</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053004719127749</v>
+        <v>0.027053092543551038</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021053005183455653</v>
+        <v>-0.021053093416464996</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027678395168614</v>
+        <v>0.021027786094761858</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027678861219584</v>
+        <v>-0.015027786970258195</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004340253699233</v>
+        <v>0.015004167906216281</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043407219946303</v>
+        <v>-0.0090041687852551178</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995118210663</v>
+        <v>0.0089999990911904248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.085399242073375348</v>
+        <v>-0.10602106488071783</v>
       </c>
       <c r="B18" s="0">
-        <v>0.085301797922731737</v>
+        <v>0.10586997962749223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.076301798356907202</v>
+        <v>-0.027096764591751477</v>
       </c>
       <c r="B19" s="0">
-        <v>0.075548740071924136</v>
+        <v>0.027013291199960321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013813524646594</v>
+        <v>-0.01801329201488322</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004335159091056</v>
+        <v>0.01800426176590264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043356060904856</v>
+        <v>-0.0090042625818744781</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999552475213</v>
+        <v>0.0089999991833966675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.12819188856832753</v>
+        <v>-0.15751647554113468</v>
       </c>
       <c r="B22" s="0">
-        <v>0.12760295172714109</v>
+        <v>0.15645327012074262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.11860295217918715</v>
+        <v>-0.0846426249356238</v>
       </c>
       <c r="B23" s="0">
-        <v>0.11759216300280517</v>
+        <v>0.084128258459808869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042128566592411154</v>
+        <v>-0.042128259636220911</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999320278647</v>
+        <v>0.041999998817220607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.04403628151793626</v>
+        <v>-0.05678455648548919</v>
       </c>
       <c r="B25" s="0">
-        <v>0.043983773369173917</v>
+        <v>0.05669648115844339</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.037983773813046184</v>
+        <v>-0.050696481998475207</v>
       </c>
       <c r="B26" s="0">
-        <v>0.03792070642828449</v>
+        <v>0.050586873354742323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.031920706873244331</v>
+        <v>-0.044586874196887116</v>
       </c>
       <c r="B27" s="0">
-        <v>0.031719279998102756</v>
+        <v>0.044222730725610671</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.02571928044688665</v>
+        <v>-0.038222731577056912</v>
       </c>
       <c r="B28" s="0">
-        <v>0.025594186288601328</v>
+        <v>0.037985755470750782</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.013594186778247419</v>
+        <v>-0.02598575638642231</v>
       </c>
       <c r="B29" s="0">
-        <v>0.013550451823695298</v>
+        <v>0.025889321023582212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0064495476345300951</v>
+        <v>-0.042168393465581211</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.0064977236080530076</v>
+        <v>0.04201875407755562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.021497723099120236</v>
+        <v>-0.027018755032777619</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.021529379840577789</v>
+        <v>0.0270005036653167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.042529379293803515</v>
+        <v>-0.0060005046800810646</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.042613301336087872</v>
+        <v>0.0059999991308510303</v>
       </c>
     </row>
   </sheetData>
